--- a/Code/Results/Cases/Case_8_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.31205435603922</v>
+        <v>12.34446589879909</v>
       </c>
       <c r="C2">
-        <v>11.0793556493039</v>
+        <v>12.3246742705771</v>
       </c>
       <c r="D2">
-        <v>3.536900510516011</v>
+        <v>4.433030680345755</v>
       </c>
       <c r="E2">
-        <v>8.744238712967954</v>
+        <v>9.804803818518112</v>
       </c>
       <c r="F2">
-        <v>44.39394537618515</v>
+        <v>37.6685554527737</v>
       </c>
       <c r="G2">
-        <v>2.145765541268633</v>
+        <v>9.121992357041529</v>
       </c>
       <c r="H2">
-        <v>3.291799111914011</v>
+        <v>2.733925800401987</v>
       </c>
       <c r="I2">
-        <v>4.339689621399639</v>
+        <v>3.64510340841414</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>28.98487548546795</v>
+        <v>23.45584153903478</v>
       </c>
       <c r="L2">
-        <v>6.901034133793968</v>
+        <v>18.476008969996</v>
       </c>
       <c r="M2">
-        <v>12.13832733515935</v>
+        <v>16.43955933824166</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.993181927397087</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.54558591322745</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.48473664116728</v>
+        <v>11.56230788054878</v>
       </c>
       <c r="C3">
-        <v>10.42223494361629</v>
+        <v>11.51792151645128</v>
       </c>
       <c r="D3">
-        <v>3.424052124250172</v>
+        <v>4.172484851196425</v>
       </c>
       <c r="E3">
-        <v>8.217551411414997</v>
+        <v>9.267692431906161</v>
       </c>
       <c r="F3">
-        <v>42.67399347968797</v>
+        <v>36.42052845443415</v>
       </c>
       <c r="G3">
-        <v>2.151695218928654</v>
+        <v>9.835643655484816</v>
       </c>
       <c r="H3">
-        <v>3.595213816669403</v>
+        <v>2.9881519575331</v>
       </c>
       <c r="I3">
-        <v>4.576449639646438</v>
+        <v>3.822601727143749</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>28.11380405001615</v>
+        <v>22.98198185604708</v>
       </c>
       <c r="L3">
-        <v>6.611525499131633</v>
+        <v>18.27691185524287</v>
       </c>
       <c r="M3">
-        <v>11.46208545251441</v>
+        <v>15.93966724645216</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.743116219905949</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.74059502663706</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.94758767789864</v>
+        <v>11.05311866001616</v>
       </c>
       <c r="C4">
-        <v>10.00676916048037</v>
+        <v>11.00064386534683</v>
       </c>
       <c r="D4">
-        <v>3.354617341856536</v>
+        <v>4.008662084433209</v>
       </c>
       <c r="E4">
-        <v>7.879119331226576</v>
+        <v>8.923701702590861</v>
       </c>
       <c r="F4">
-        <v>41.57838821276309</v>
+        <v>35.62400777353842</v>
       </c>
       <c r="G4">
-        <v>2.155446278134893</v>
+        <v>10.28779690689006</v>
       </c>
       <c r="H4">
-        <v>3.787724577724375</v>
+        <v>3.149815923703084</v>
       </c>
       <c r="I4">
-        <v>4.72693578589011</v>
+        <v>3.936008615790282</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>27.55920324734975</v>
+        <v>22.67804672427415</v>
       </c>
       <c r="L4">
-        <v>6.426691785180896</v>
+        <v>18.14138365444622</v>
       </c>
       <c r="M4">
-        <v>11.03080454949254</v>
+        <v>15.63528912471142</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.583912638225155</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.21828848894136</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.73836719570997</v>
+        <v>10.83684823872387</v>
       </c>
       <c r="C5">
-        <v>9.842431389914427</v>
+        <v>10.79089732138443</v>
       </c>
       <c r="D5">
-        <v>3.331180135220052</v>
+        <v>3.947760548616302</v>
       </c>
       <c r="E5">
-        <v>7.740951796683958</v>
+        <v>8.782819403992512</v>
       </c>
       <c r="F5">
-        <v>41.08868042161362</v>
+        <v>35.264805218973</v>
       </c>
       <c r="G5">
-        <v>2.157016071865396</v>
+        <v>10.47705836278759</v>
       </c>
       <c r="H5">
-        <v>3.868321081206103</v>
+        <v>3.217508848641994</v>
       </c>
       <c r="I5">
-        <v>4.792138258322463</v>
+        <v>3.986330763695509</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>27.30231659573953</v>
+        <v>22.53081233748049</v>
       </c>
       <c r="L5">
-        <v>6.348570838812082</v>
+        <v>18.0663058424538</v>
       </c>
       <c r="M5">
-        <v>10.85288064287306</v>
+        <v>15.49819401871201</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.516834950698907</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.99942997112508</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.7014883004741</v>
+        <v>10.79867966068154</v>
       </c>
       <c r="C6">
-        <v>9.824565646125919</v>
+        <v>10.7636566091118</v>
       </c>
       <c r="D6">
-        <v>3.333285118514536</v>
+        <v>3.945843183621756</v>
       </c>
       <c r="E6">
-        <v>7.722074280850681</v>
+        <v>8.762626430061916</v>
       </c>
       <c r="F6">
-        <v>40.96552467612658</v>
+        <v>35.17135243100005</v>
       </c>
       <c r="G6">
-        <v>2.15729406105715</v>
+        <v>10.51043884663548</v>
       </c>
       <c r="H6">
-        <v>3.882473168696119</v>
+        <v>3.229312062569518</v>
       </c>
       <c r="I6">
-        <v>4.806297824753274</v>
+        <v>3.998570138936305</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>27.22743231946005</v>
+        <v>22.481504056622</v>
       </c>
       <c r="L6">
-        <v>6.33419939096779</v>
+        <v>18.03349992410083</v>
       </c>
       <c r="M6">
-        <v>10.82519686793918</v>
+        <v>15.45834712026494</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.504613002362921</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.96393011819251</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.94003856646752</v>
+        <v>11.05331250453262</v>
       </c>
       <c r="C7">
-        <v>10.0301850174509</v>
+        <v>10.96965032395226</v>
       </c>
       <c r="D7">
-        <v>3.370562496421888</v>
+        <v>4.069741017538385</v>
       </c>
       <c r="E7">
-        <v>7.888731151392081</v>
+        <v>8.947181111930927</v>
       </c>
       <c r="F7">
-        <v>41.46059787365904</v>
+        <v>35.36751969705814</v>
       </c>
       <c r="G7">
-        <v>2.155509467925548</v>
+        <v>10.34286125618695</v>
       </c>
       <c r="H7">
-        <v>3.790625561749493</v>
+        <v>3.154690876509705</v>
       </c>
       <c r="I7">
-        <v>4.73646349695056</v>
+        <v>3.949368840657456</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>27.46937987315702</v>
+        <v>22.50744796661822</v>
       </c>
       <c r="L7">
-        <v>6.42215809661603</v>
+        <v>18.00407059344164</v>
       </c>
       <c r="M7">
-        <v>11.03398159984432</v>
+        <v>15.51471143743054</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.575287819339073</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.20870894165847</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.02604518343459</v>
+        <v>12.09925776879746</v>
       </c>
       <c r="C8">
-        <v>10.88678393841822</v>
+        <v>11.92520830833067</v>
       </c>
       <c r="D8">
-        <v>3.519089918292356</v>
+        <v>4.495328654196964</v>
       </c>
       <c r="E8">
-        <v>8.579836485597074</v>
+        <v>9.68452152817343</v>
       </c>
       <c r="F8">
-        <v>43.66912413900536</v>
+        <v>36.61987935862368</v>
       </c>
       <c r="G8">
-        <v>2.147841480103819</v>
+        <v>9.581577080606195</v>
       </c>
       <c r="H8">
-        <v>3.397494842705238</v>
+        <v>2.830609253667539</v>
       </c>
       <c r="I8">
-        <v>4.431345485873702</v>
+        <v>3.726504905751641</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>28.57861469362627</v>
+        <v>22.88488474378897</v>
       </c>
       <c r="L8">
-        <v>6.798313305144539</v>
+        <v>18.08739057132873</v>
       </c>
       <c r="M8">
-        <v>11.91531309543623</v>
+        <v>15.96805715121425</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.888900956654909</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.24697664505167</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.92863701593215</v>
+        <v>13.89987921810843</v>
       </c>
       <c r="C9">
-        <v>12.42572234351651</v>
+        <v>13.76967337630583</v>
       </c>
       <c r="D9">
-        <v>3.780340146762749</v>
+        <v>5.11335493480652</v>
       </c>
       <c r="E9">
-        <v>9.796955886630101</v>
+        <v>10.94014978698718</v>
       </c>
       <c r="F9">
-        <v>47.85513200290972</v>
+        <v>39.57038397836335</v>
       </c>
       <c r="G9">
-        <v>2.133573260761021</v>
+        <v>7.934629738711961</v>
       </c>
       <c r="H9">
-        <v>2.671103787136635</v>
+        <v>2.22644634489346</v>
       </c>
       <c r="I9">
-        <v>3.858061594471752</v>
+        <v>3.298096274335374</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>30.73538637135287</v>
+        <v>24.00491130636073</v>
       </c>
       <c r="L9">
-        <v>7.484298423798362</v>
+        <v>18.53426565046383</v>
       </c>
       <c r="M9">
-        <v>13.62347542606741</v>
+        <v>17.21316449633611</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.48027781344183</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.09222794272838</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.18922694724872</v>
+        <v>15.13227567236545</v>
       </c>
       <c r="C10">
-        <v>13.43050667585358</v>
+        <v>14.72559271270996</v>
       </c>
       <c r="D10">
-        <v>3.946384703954029</v>
+        <v>5.690115931799575</v>
       </c>
       <c r="E10">
-        <v>10.41711721770809</v>
+        <v>11.65561262658253</v>
       </c>
       <c r="F10">
-        <v>50.16057027867296</v>
+        <v>40.3554001776164</v>
       </c>
       <c r="G10">
-        <v>2.123839816007321</v>
+        <v>7.655335188018594</v>
       </c>
       <c r="H10">
-        <v>2.20424187041474</v>
+        <v>1.859178029578147</v>
       </c>
       <c r="I10">
-        <v>3.475227390118239</v>
+        <v>3.030048477245676</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>31.86214996573795</v>
+        <v>24.004398928667</v>
       </c>
       <c r="L10">
-        <v>7.823102919368067</v>
+        <v>18.23733361690056</v>
       </c>
       <c r="M10">
-        <v>14.83692271911184</v>
+        <v>17.5382142429498</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.738233789915829</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.24897650552116</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.80790404163105</v>
+        <v>15.84340142018895</v>
       </c>
       <c r="C11">
-        <v>13.30984184784859</v>
+        <v>14.02631986741572</v>
       </c>
       <c r="D11">
-        <v>3.778459055192957</v>
+        <v>5.888481594509473</v>
       </c>
       <c r="E11">
-        <v>8.961096823277334</v>
+        <v>10.29893056019872</v>
       </c>
       <c r="F11">
-        <v>46.71896849969848</v>
+        <v>35.88689846711161</v>
       </c>
       <c r="G11">
-        <v>2.121745612923096</v>
+        <v>10.25102648517</v>
       </c>
       <c r="H11">
-        <v>3.074996722998485</v>
+        <v>2.859046592243932</v>
       </c>
       <c r="I11">
-        <v>3.409473262696908</v>
+        <v>3.008750411765245</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>29.59678358921319</v>
+        <v>21.27630200971323</v>
       </c>
       <c r="L11">
-        <v>6.916103554126209</v>
+        <v>16.10405898872071</v>
       </c>
       <c r="M11">
-        <v>15.21549161468551</v>
+        <v>15.57033733509445</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.817125078173852</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.50235779190505</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.08443541474483</v>
+        <v>16.18206081517731</v>
       </c>
       <c r="C12">
-        <v>12.95928926285147</v>
+        <v>13.33373669755127</v>
       </c>
       <c r="D12">
-        <v>3.583789171233968</v>
+        <v>5.79186894289793</v>
       </c>
       <c r="E12">
-        <v>7.621846883697198</v>
+        <v>8.971112148438779</v>
       </c>
       <c r="F12">
-        <v>43.46774129633765</v>
+        <v>32.57336273023503</v>
       </c>
       <c r="G12">
-        <v>2.121770934318763</v>
+        <v>11.81685742190415</v>
       </c>
       <c r="H12">
-        <v>4.386440441670332</v>
+        <v>4.233636401956655</v>
       </c>
       <c r="I12">
-        <v>3.410972561852711</v>
+        <v>3.013526700237184</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>27.58230961864872</v>
+        <v>19.45086601172948</v>
       </c>
       <c r="L12">
-        <v>6.157359935396466</v>
+        <v>14.74566772317675</v>
       </c>
       <c r="M12">
-        <v>15.28438154880882</v>
+        <v>14.18154524735203</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.087033353986294</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.5053636792484</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.11731434542915</v>
+        <v>16.24184087301271</v>
       </c>
       <c r="C13">
-        <v>12.41891443277035</v>
+        <v>12.69715383815466</v>
       </c>
       <c r="D13">
-        <v>3.376412588104979</v>
+        <v>5.408146740987218</v>
       </c>
       <c r="E13">
-        <v>6.294132315651925</v>
+        <v>7.557469590373521</v>
       </c>
       <c r="F13">
-        <v>39.9606063377309</v>
+        <v>30.07217550475006</v>
       </c>
       <c r="G13">
-        <v>2.123488045777064</v>
+        <v>11.56519600065807</v>
       </c>
       <c r="H13">
-        <v>5.786045139695833</v>
+        <v>5.655237738595551</v>
       </c>
       <c r="I13">
-        <v>3.478651420921878</v>
+        <v>3.054740003373436</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>25.50031473806704</v>
+        <v>18.25348624192291</v>
       </c>
       <c r="L13">
-        <v>5.480336707017478</v>
+        <v>13.89974580641626</v>
       </c>
       <c r="M13">
-        <v>15.12672066158559</v>
+        <v>13.21394976548126</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.481486468077055</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.33873234762347</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.03009934578211</v>
+        <v>16.15786344341347</v>
       </c>
       <c r="C14">
-        <v>11.95249056057134</v>
+        <v>12.26737146936328</v>
       </c>
       <c r="D14">
-        <v>3.22994314714777</v>
+        <v>5.014842943722893</v>
       </c>
       <c r="E14">
-        <v>5.396173564877168</v>
+        <v>6.558627411803493</v>
       </c>
       <c r="F14">
-        <v>37.34711260627733</v>
+        <v>28.62326419662278</v>
       </c>
       <c r="G14">
-        <v>2.125444920332834</v>
+        <v>10.62685790322862</v>
       </c>
       <c r="H14">
-        <v>6.789763092153994</v>
+        <v>6.66413002210986</v>
       </c>
       <c r="I14">
-        <v>3.558001848025932</v>
+        <v>3.104019426458037</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>23.99609875629947</v>
+        <v>17.65071636518078</v>
       </c>
       <c r="L14">
-        <v>5.078529581462774</v>
+        <v>13.49373541167089</v>
       </c>
       <c r="M14">
-        <v>14.91327801075135</v>
+        <v>12.69755495538909</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.145709229981621</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.14308104506685</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.95438435887726</v>
+        <v>16.07665787056079</v>
       </c>
       <c r="C15">
-        <v>11.80419134646108</v>
+        <v>12.17187615544409</v>
       </c>
       <c r="D15">
-        <v>3.19645644823004</v>
+        <v>4.870875743957702</v>
       </c>
       <c r="E15">
-        <v>5.178920351844596</v>
+        <v>6.303508102076869</v>
       </c>
       <c r="F15">
-        <v>36.61911737101934</v>
+        <v>28.37606856466062</v>
       </c>
       <c r="G15">
-        <v>2.126319699940182</v>
+        <v>10.10792122948033</v>
       </c>
       <c r="H15">
-        <v>7.02756920931357</v>
+        <v>6.900058609228786</v>
       </c>
       <c r="I15">
-        <v>3.596333125194468</v>
+        <v>3.129909552589858</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>23.58720687394606</v>
+        <v>17.58145963895798</v>
       </c>
       <c r="L15">
-        <v>4.988497847345713</v>
+        <v>13.45613710957393</v>
       </c>
       <c r="M15">
-        <v>14.81308859900496</v>
+        <v>12.62406517231635</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.07703690425631</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.05772874568903</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.43715757173153</v>
+        <v>15.50797643894939</v>
       </c>
       <c r="C16">
-        <v>11.45600242040988</v>
+        <v>12.17421521510782</v>
       </c>
       <c r="D16">
-        <v>3.168717643681634</v>
+        <v>4.423410339970392</v>
       </c>
       <c r="E16">
-        <v>5.090808673141588</v>
+        <v>6.121337621376101</v>
       </c>
       <c r="F16">
-        <v>36.13671843323652</v>
+        <v>29.48254642738887</v>
       </c>
       <c r="G16">
-        <v>2.130126325741503</v>
+        <v>8.159848427857298</v>
       </c>
       <c r="H16">
-        <v>6.871820891485463</v>
+        <v>6.713214325767157</v>
       </c>
       <c r="I16">
-        <v>3.749883673248029</v>
+        <v>3.22752098066572</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>23.42232585057308</v>
+        <v>18.37933654630582</v>
       </c>
       <c r="L16">
-        <v>4.949377138679782</v>
+        <v>14.0959908912184</v>
       </c>
       <c r="M16">
-        <v>14.34094987409456</v>
+        <v>13.16229274161417</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.084181189845383</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.67700031102242</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.07885373604336</v>
+        <v>15.11906964236772</v>
       </c>
       <c r="C17">
-        <v>11.45194501647941</v>
+        <v>12.36171386217602</v>
       </c>
       <c r="D17">
-        <v>3.227245551200628</v>
+        <v>4.340557936311312</v>
       </c>
       <c r="E17">
-        <v>5.504143993382256</v>
+        <v>6.515035342283639</v>
       </c>
       <c r="F17">
-        <v>37.18436674661279</v>
+        <v>30.96359864364118</v>
       </c>
       <c r="G17">
-        <v>2.132027027779541</v>
+        <v>7.748316822030564</v>
       </c>
       <c r="H17">
-        <v>6.198483607915605</v>
+        <v>6.006798103003998</v>
       </c>
       <c r="I17">
-        <v>3.826880780119076</v>
+        <v>3.27878763130926</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>24.09787481337318</v>
+        <v>19.2464409937352</v>
       </c>
       <c r="L17">
-        <v>5.118116889577847</v>
+        <v>14.77814435485683</v>
       </c>
       <c r="M17">
-        <v>14.08984785643055</v>
+        <v>13.78002645333622</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.25504442835453</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.47585877003857</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.82894239147377</v>
+        <v>14.83845200976566</v>
       </c>
       <c r="C18">
-        <v>11.71755915139044</v>
+        <v>12.79984671050254</v>
       </c>
       <c r="D18">
-        <v>3.358497008790374</v>
+        <v>4.480004746340026</v>
       </c>
       <c r="E18">
-        <v>6.473740656142129</v>
+        <v>7.495345410140885</v>
       </c>
       <c r="F18">
-        <v>39.77270450153594</v>
+        <v>33.29453036870302</v>
       </c>
       <c r="G18">
-        <v>2.1323694341005</v>
+        <v>7.622049570085814</v>
       </c>
       <c r="H18">
-        <v>5.04116183595209</v>
+        <v>4.802760327632047</v>
       </c>
       <c r="I18">
-        <v>3.833783413157241</v>
+        <v>3.279137517759007</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>25.66689474499319</v>
+        <v>20.50582765723498</v>
       </c>
       <c r="L18">
-        <v>5.575879481649249</v>
+        <v>15.74354385199112</v>
       </c>
       <c r="M18">
-        <v>14.00525385011443</v>
+        <v>14.71720030824999</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.681565938043141</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.42725681577347</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.68229816032113</v>
+        <v>14.65871893832108</v>
       </c>
       <c r="C19">
-        <v>12.21114750552063</v>
+        <v>13.4712650293988</v>
       </c>
       <c r="D19">
-        <v>3.572069893072014</v>
+        <v>4.789508662297988</v>
       </c>
       <c r="E19">
-        <v>7.887003512080256</v>
+        <v>8.938545678398595</v>
       </c>
       <c r="F19">
-        <v>43.25117688071634</v>
+        <v>36.12368836007466</v>
       </c>
       <c r="G19">
-        <v>2.131354855845465</v>
+        <v>7.47619648467223</v>
       </c>
       <c r="H19">
-        <v>3.70545266903163</v>
+        <v>3.396951716322811</v>
       </c>
       <c r="I19">
-        <v>3.796327795199281</v>
+        <v>3.255493021179777</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>27.7449585289748</v>
+        <v>21.98715444762749</v>
       </c>
       <c r="L19">
-        <v>6.322034418570024</v>
+        <v>16.86342081194505</v>
       </c>
       <c r="M19">
-        <v>14.07007699814954</v>
+        <v>15.84019549359568</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.376819084401418</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.51916138111256</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.85413471650678</v>
+        <v>14.78513238311524</v>
       </c>
       <c r="C20">
-        <v>13.22936427386469</v>
+        <v>14.65200397645555</v>
       </c>
       <c r="D20">
-        <v>3.948380191488215</v>
+        <v>5.479907770660212</v>
       </c>
       <c r="E20">
-        <v>10.27579054630571</v>
+        <v>11.43778459888607</v>
       </c>
       <c r="F20">
-        <v>49.25281941950994</v>
+        <v>40.39095005495963</v>
       </c>
       <c r="G20">
-        <v>2.12649589720751</v>
+        <v>7.203753648295915</v>
       </c>
       <c r="H20">
-        <v>2.330337918592991</v>
+        <v>1.948844217729507</v>
       </c>
       <c r="I20">
-        <v>3.604119190896641</v>
+        <v>3.126621312588557</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>31.32384302333703</v>
+        <v>24.13487910451948</v>
       </c>
       <c r="L20">
-        <v>7.720902464556263</v>
+        <v>18.41103627949946</v>
       </c>
       <c r="M20">
-        <v>14.53573500982404</v>
+        <v>17.55209496357513</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.674363166761712</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.98931860779843</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.76553632397951</v>
+        <v>15.78148251348695</v>
       </c>
       <c r="C21">
-        <v>14.09862053820526</v>
+        <v>14.82729779238122</v>
       </c>
       <c r="D21">
-        <v>4.113116481368541</v>
+        <v>6.550551558133859</v>
       </c>
       <c r="E21">
-        <v>11.04220425760763</v>
+        <v>12.52974349856259</v>
       </c>
       <c r="F21">
-        <v>51.80399168916704</v>
+        <v>39.12255930437168</v>
       </c>
       <c r="G21">
-        <v>2.118714578041739</v>
+        <v>11.4476026618044</v>
       </c>
       <c r="H21">
-        <v>1.919521174450106</v>
+        <v>1.656761590809589</v>
       </c>
       <c r="I21">
-        <v>3.295614276107101</v>
+        <v>2.947694499420396</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>32.69001916204364</v>
+        <v>22.87028301779374</v>
       </c>
       <c r="L21">
-        <v>8.169720954657752</v>
+        <v>17.26269828446935</v>
       </c>
       <c r="M21">
-        <v>15.45107964192003</v>
+        <v>16.82439743131469</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.976581946759032</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.72201224834848</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.34628516354213</v>
+        <v>16.42557400667054</v>
       </c>
       <c r="C22">
-        <v>14.61195478881115</v>
+        <v>14.83465800409914</v>
       </c>
       <c r="D22">
-        <v>4.185347373773901</v>
+        <v>7.224267931472783</v>
       </c>
       <c r="E22">
-        <v>11.41312923483957</v>
+        <v>13.12376316495406</v>
       </c>
       <c r="F22">
-        <v>53.28196872343403</v>
+        <v>38.03441799751969</v>
       </c>
       <c r="G22">
-        <v>2.113785727705406</v>
+        <v>15.77999879690563</v>
       </c>
       <c r="H22">
-        <v>1.671865541532089</v>
+        <v>1.634779626743831</v>
       </c>
       <c r="I22">
-        <v>3.090506676268213</v>
+        <v>2.82117192549696</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>33.49394986503905</v>
+        <v>21.9198684794496</v>
       </c>
       <c r="L22">
-        <v>8.394207105262602</v>
+        <v>16.44444882873179</v>
       </c>
       <c r="M22">
-        <v>16.01370094424821</v>
+        <v>16.24026631860292</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.106798163220509</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.1599725709109</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.04374318803447</v>
+        <v>16.07234784298764</v>
       </c>
       <c r="C23">
-        <v>14.31787829542118</v>
+        <v>14.90649140310874</v>
       </c>
       <c r="D23">
-        <v>4.129520562676495</v>
+        <v>6.76646747954975</v>
       </c>
       <c r="E23">
-        <v>11.20642202332222</v>
+        <v>12.76622577028073</v>
       </c>
       <c r="F23">
-        <v>52.60277546060963</v>
+        <v>39.0399769611139</v>
       </c>
       <c r="G23">
-        <v>2.11636688572629</v>
+        <v>12.67224563614467</v>
       </c>
       <c r="H23">
-        <v>1.801729848968167</v>
+        <v>1.570568675988002</v>
       </c>
       <c r="I23">
-        <v>3.187797741723591</v>
+        <v>2.870382964670006</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>33.15260636913131</v>
+        <v>22.70769669916003</v>
       </c>
       <c r="L23">
-        <v>8.278349254395199</v>
+        <v>17.08243720657531</v>
       </c>
       <c r="M23">
-        <v>15.71214219234241</v>
+        <v>16.77255670091701</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.050212358596873</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.94432922477319</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.83935569498616</v>
+        <v>14.76481085583928</v>
       </c>
       <c r="C24">
-        <v>13.23650258980612</v>
+        <v>14.68847761262662</v>
       </c>
       <c r="D24">
-        <v>3.943635484836621</v>
+        <v>5.4725390288692</v>
       </c>
       <c r="E24">
-        <v>10.41252602451342</v>
+        <v>11.57991861722015</v>
       </c>
       <c r="F24">
-        <v>49.78248468587268</v>
+        <v>40.8409911752512</v>
       </c>
       <c r="G24">
-        <v>2.126343348600744</v>
+        <v>7.166505575022943</v>
       </c>
       <c r="H24">
-        <v>2.304684398263705</v>
+        <v>1.924046900284128</v>
       </c>
       <c r="I24">
-        <v>3.582882760689407</v>
+        <v>3.102680688517679</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>31.68478960242466</v>
+        <v>24.41594260078787</v>
       </c>
       <c r="L24">
-        <v>7.820915334599894</v>
+        <v>18.62529098263787</v>
       </c>
       <c r="M24">
-        <v>14.5290163913004</v>
+        <v>17.7625056584944</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.769713509260584</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.98728353656505</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.43067554344206</v>
+        <v>13.42030496313356</v>
       </c>
       <c r="C25">
-        <v>12.05944329323861</v>
+        <v>13.38096150168032</v>
       </c>
       <c r="D25">
-        <v>3.737918432190859</v>
+        <v>4.935356873450654</v>
       </c>
       <c r="E25">
-        <v>9.497957145199068</v>
+        <v>10.60729481014827</v>
       </c>
       <c r="F25">
-        <v>46.58114322435708</v>
+        <v>38.86233154703876</v>
       </c>
       <c r="G25">
-        <v>2.137418592481636</v>
+        <v>8.255621076356874</v>
       </c>
       <c r="H25">
-        <v>2.865850718307309</v>
+        <v>2.384023902485453</v>
       </c>
       <c r="I25">
-        <v>4.024910318353977</v>
+        <v>3.425738962680156</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>30.02806347259257</v>
+        <v>23.73697830853472</v>
       </c>
       <c r="L25">
-        <v>7.29942107200183</v>
+        <v>18.44246357287772</v>
       </c>
       <c r="M25">
-        <v>13.15175394963916</v>
+        <v>16.89447775806548</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.327549528601097</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.63400242488367</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
